--- a/PCB_design/Calculations.xlsx
+++ b/PCB_design/Calculations.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekty\Power_supply\PCB_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D10421-5B4B-4459-BE25-5BC0C8299F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE89BD70-1791-43D0-A1C5-EDB8DD3DF289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dig_pot" sheetId="2" r:id="rId1"/>
-    <sheet name="Inductor" sheetId="1" r:id="rId2"/>
+    <sheet name="List1" sheetId="3" r:id="rId2"/>
+    <sheet name="Inductor" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <r>
       <t>P</t>
@@ -318,6 +319,45 @@
       <t>L</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [uH]</t>
+    </r>
+  </si>
+  <si>
+    <t>L0 ideal [uH]</t>
+  </si>
+  <si>
+    <t>Rs</t>
+  </si>
+  <si>
+    <t>Lmin [uH]</t>
+  </si>
+  <si>
+    <t>IL(peak - SC)</t>
+  </si>
 </sst>
 </file>
 
@@ -421,7 +461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -431,6 +471,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="48" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -519,7 +560,350 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Inductor!$E$3:$E$13</c:f>
+              <c:f>List1!$F$3:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>List1!$G$3:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.9444444444444429</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.152777777777777</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.152777777777775</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8194444444444442</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.65777777777777791</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8AB0-471A-A8B5-06EAFA2F91E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="660325840"/>
+        <c:axId val="794461264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="660325840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="794461264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="794461264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="660325840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Inductor!$F$3:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -561,42 +945,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Inductor!$F$3:$F$13</c:f>
+              <c:f>Inductor!$G$3:$G$13</c:f>
               <c:numCache>
-                <c:formatCode>##0.0E+0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>6.9444444444444437E-7</c:v>
+                  <c:v>6.9444444444444429</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.3750000000000002E-7</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1111111111111112E-6</c:v>
+                  <c:v>11.111111111111112</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2152777777777776E-6</c:v>
+                  <c:v>12.152777777777777</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2500000000000001E-6</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2152777777777776E-6</c:v>
+                  <c:v>12.152777777777775</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1111111111111112E-6</c:v>
+                  <c:v>11.111111111111112</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.3750000000000013E-7</c:v>
+                  <c:v>9.375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.9444444444444448E-7</c:v>
+                  <c:v>6.9444444444444446</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.8194444444444445E-7</c:v>
+                  <c:v>3.8194444444444442</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.95E-8</c:v>
+                  <c:v>0.49500000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -702,7 +1086,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="##0.0E+0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -835,7 +1219,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1416,13 +2356,56 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>501218</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>178201</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graf 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7308A85A-4820-42D9-8194-624369B777B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -1728,40 +2711,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9" t="s">
+      <c r="J1" s="10"/>
+      <c r="K1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9" t="s">
+      <c r="N1" s="10"/>
+      <c r="O1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9" t="s">
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9" t="s">
+      <c r="R1" s="10"/>
+      <c r="S1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9" t="s">
+      <c r="T1" s="10"/>
+      <c r="U1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="9"/>
+      <c r="V1" s="10"/>
     </row>
     <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -16476,21 +17459,414 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B93BCCF-B30E-4131-9770-BB0189353AD7}">
+  <dimension ref="A2:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <f>A3*0.4</f>
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="D3" s="8">
+        <v>300000</v>
+      </c>
+      <c r="E3" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" ref="G3:G13" si="0">(F3/($B$3*$D$3))*(1-(F3/$C$3))*1000000</f>
+        <v>6.9444444444444429</v>
+      </c>
+      <c r="H3" s="9">
+        <f>F3*3/(45*$D$3)*10^(6)</f>
+        <v>11.111111111111112</v>
+      </c>
+      <c r="I3" s="9">
+        <f>F3*$E$3/(0.08*$D$3)*1000000</f>
+        <v>6.2499999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>45</v>
+      </c>
+      <c r="G4" s="9">
+        <f t="shared" si="0"/>
+        <v>9.375</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" ref="H4:H13" si="1">F4*3/(45*$D$3)*10^(6)</f>
+        <v>10</v>
+      </c>
+      <c r="I4" s="9">
+        <f t="shared" ref="I4:I13" si="2">F4*$E$3/(0.08*$D$3)*1000000</f>
+        <v>5.625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>40</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" si="0"/>
+        <v>11.111111111111112</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="1"/>
+        <v>8.8888888888888875</v>
+      </c>
+      <c r="I5" s="9">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>35</v>
+      </c>
+      <c r="G6" s="9">
+        <f t="shared" si="0"/>
+        <v>12.152777777777777</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="1"/>
+        <v>7.7777777777777777</v>
+      </c>
+      <c r="I6" s="9">
+        <f t="shared" si="2"/>
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7" s="9">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="1"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="I7" s="9">
+        <f t="shared" si="2"/>
+        <v>3.7499999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>25</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="0"/>
+        <v>12.152777777777775</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="1"/>
+        <v>5.5555555555555562</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="2"/>
+        <v>3.1249999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="0"/>
+        <v>11.111111111111112</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="1"/>
+        <v>4.4444444444444438</v>
+      </c>
+      <c r="I9" s="9">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="G10" s="9">
+        <f t="shared" si="0"/>
+        <v>9.375</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="2"/>
+        <v>1.8749999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444446</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="1"/>
+        <v>2.2222222222222219</v>
+      </c>
+      <c r="I11" s="9">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12" s="9">
+        <f t="shared" si="0"/>
+        <v>3.8194444444444442</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="1"/>
+        <v>1.1111111111111109</v>
+      </c>
+      <c r="I12" s="9">
+        <f t="shared" si="2"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>0.8</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="0"/>
+        <v>0.65777777777777791</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="1"/>
+        <v>0.17777777777777781</v>
+      </c>
+      <c r="I13" s="9">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C17" s="9">
+        <f t="shared" ref="C17:C27" si="3">(F3/($B$17*$D$3))*(1-F3/$C$3)</f>
+        <v>2.7777777777777768</v>
+      </c>
+      <c r="D17" s="9">
+        <f>$A$3+C17/2</f>
+        <v>11.388888888888889</v>
+      </c>
+      <c r="E17" s="9">
+        <f>(0.068/$E$3)+($C$3*0.000000075/$B$17)</f>
+        <v>23.116666666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="9">
+        <f t="shared" si="3"/>
+        <v>3.7499999999999996</v>
+      </c>
+      <c r="D18" s="9">
+        <f t="shared" ref="D18:D24" si="4">$A$3+C18/2</f>
+        <v>11.875</v>
+      </c>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="9">
+        <f t="shared" si="3"/>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="D19" s="9">
+        <f t="shared" si="4"/>
+        <v>12.222222222222221</v>
+      </c>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="9">
+        <f t="shared" si="3"/>
+        <v>4.8611111111111098</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" si="4"/>
+        <v>12.430555555555555</v>
+      </c>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="9">
+        <f t="shared" si="3"/>
+        <v>4.9999999999999991</v>
+      </c>
+      <c r="D21" s="9">
+        <f>$A$3+C21/2</f>
+        <v>12.5</v>
+      </c>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="9">
+        <f t="shared" si="3"/>
+        <v>4.8611111111111098</v>
+      </c>
+      <c r="D22" s="9">
+        <f>$A$3+C22/2</f>
+        <v>12.430555555555555</v>
+      </c>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="9">
+        <f t="shared" si="3"/>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="D23" s="9">
+        <f t="shared" si="4"/>
+        <v>12.222222222222221</v>
+      </c>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="9">
+        <f t="shared" si="3"/>
+        <v>3.7499999999999991</v>
+      </c>
+      <c r="D24" s="9">
+        <f t="shared" si="4"/>
+        <v>11.875</v>
+      </c>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="9">
+        <f t="shared" si="3"/>
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="D25" s="9">
+        <f>$A$3+C25/2</f>
+        <v>11.388888888888889</v>
+      </c>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="9">
+        <f t="shared" si="3"/>
+        <v>1.5277777777777777</v>
+      </c>
+      <c r="D26" s="9">
+        <f t="shared" ref="D26:D27" si="5">$A$3+C26/2</f>
+        <v>10.763888888888889</v>
+      </c>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="9">
+        <f t="shared" si="3"/>
+        <v>0.26311111111111113</v>
+      </c>
+      <c r="D27" s="9">
+        <f t="shared" si="5"/>
+        <v>10.131555555555556</v>
+      </c>
+      <c r="E27" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:G28"/>
+  <sheetViews>
+    <sheetView zoomScale="103" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -16503,126 +17879,129 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <f>A3*0.4</f>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>60</v>
       </c>
       <c r="D3" s="8">
-        <v>600000</v>
-      </c>
-      <c r="E3">
+        <v>300000</v>
+      </c>
+      <c r="E3" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F3">
         <v>50</v>
       </c>
-      <c r="F3" s="8">
-        <f>(E3/($B$3*$D$3))*(1-E3/$C$3)</f>
-        <v>6.9444444444444437E-7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E4">
+      <c r="G3" s="9">
+        <f>(F3/($B$3*$D$3))*(1-(F3/$C$3))*1000000</f>
+        <v>6.9444444444444429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4">
         <v>45</v>
       </c>
-      <c r="F4" s="8">
-        <f t="shared" ref="F4:F13" si="0">(E4/($B$3*$D$3))*(1-E4/$C$3)</f>
-        <v>9.3750000000000002E-7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E5">
+      <c r="G4" s="9">
+        <f t="shared" ref="G4:G13" si="0">(F4/($B$3*$D$3))*(1-(F4/$C$3))*1000000</f>
+        <v>9.375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5">
         <v>40</v>
       </c>
-      <c r="F5" s="8">
-        <f>(E5/($B$3*$D$3))*(1-E5/$C$3)</f>
-        <v>1.1111111111111112E-6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E6">
+      <c r="G5" s="9">
+        <f>(F5/($B$3*$D$3))*(1-(F5/$C$3))*1000000</f>
+        <v>11.111111111111112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6">
         <v>35</v>
       </c>
-      <c r="F6" s="8">
+      <c r="G6" s="9">
         <f t="shared" si="0"/>
-        <v>1.2152777777777776E-6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E7">
+        <v>12.152777777777777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7">
         <v>30</v>
       </c>
-      <c r="F7" s="8">
+      <c r="G7" s="9">
         <f t="shared" si="0"/>
-        <v>1.2500000000000001E-6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E8">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8">
         <v>25</v>
       </c>
-      <c r="F8" s="8">
+      <c r="G8" s="9">
         <f t="shared" si="0"/>
-        <v>1.2152777777777776E-6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E9">
+        <v>12.152777777777775</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9">
         <v>20</v>
       </c>
-      <c r="F9" s="8">
+      <c r="G9" s="9">
         <f t="shared" si="0"/>
-        <v>1.1111111111111112E-6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E10">
+        <v>11.111111111111112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10">
         <v>15</v>
       </c>
-      <c r="F10" s="8">
+      <c r="G10" s="9">
         <f t="shared" si="0"/>
-        <v>9.3750000000000013E-7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E11">
+        <v>9.375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11">
         <v>10</v>
       </c>
-      <c r="F11" s="8">
+      <c r="G11" s="9">
         <f t="shared" si="0"/>
-        <v>6.9444444444444448E-7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E12">
+        <v>6.9444444444444446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12">
         <v>5</v>
       </c>
-      <c r="F12" s="8">
+      <c r="G12" s="9">
         <f t="shared" si="0"/>
-        <v>3.8194444444444445E-7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E13">
+        <v>3.8194444444444442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13">
         <v>0.6</v>
       </c>
-      <c r="F13" s="8">
+      <c r="G13" s="9">
         <f t="shared" si="0"/>
-        <v>4.95E-8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+        <v>0.49500000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -16633,124 +18012,132 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="8">
-        <f>F7</f>
-        <v>1.2500000000000001E-6</v>
-      </c>
-      <c r="C17" s="8">
-        <f>(E3/($B$17*$D$3))*(1-E3/$C$3)</f>
-        <v>11.111111111111107</v>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C17" s="9">
+        <f>(F3/($B$17*$D$3))*(1-F3/$C$3)</f>
+        <v>2.7777777777777768</v>
       </c>
       <c r="D17">
         <f>$A$3+C17/2</f>
-        <v>55.555555555555557</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="8">
-        <f>(E4/($B$17*$D$3))*(1-E4/$C$3)</f>
-        <v>14.999999999999998</v>
+        <v>11.388888888888889</v>
+      </c>
+      <c r="E17">
+        <f>(0.068/$E$3)+($C$3*0.000000075/$B$17)</f>
+        <v>14.05</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="9">
+        <f t="shared" ref="C18:C27" si="1">(F4/($B$17*$D$3))*(1-F4/$C$3)</f>
+        <v>3.7499999999999996</v>
       </c>
       <c r="D18">
-        <f t="shared" ref="D18:D24" si="1">$A$3+C18/2</f>
-        <v>57.5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="8">
-        <f>(E5/($B$17*$D$3))*(1-E5/$C$3)</f>
-        <v>17.777777777777779</v>
+        <f t="shared" ref="D18:D24" si="2">$A$3+C18/2</f>
+        <v>11.875</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="9">
+        <f>(F5/($B$17*$D$3))*(1-F5/$C$3)</f>
+        <v>4.4444444444444446</v>
       </c>
       <c r="D19">
+        <f t="shared" si="2"/>
+        <v>12.222222222222221</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="9">
         <f t="shared" si="1"/>
-        <v>58.888888888888886</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="8">
-        <f>(E6/($B$17*$D$3))*(1-E6/$C$3)</f>
-        <v>19.444444444444439</v>
+        <v>4.8611111111111098</v>
       </c>
       <c r="D20">
+        <f t="shared" si="2"/>
+        <v>12.430555555555555</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="9">
         <f t="shared" si="1"/>
-        <v>59.722222222222221</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="8">
-        <f>(E7/($B$17*$D$3))*(1-E7/$C$3)</f>
-        <v>19.999999999999996</v>
+        <v>4.9999999999999991</v>
       </c>
       <c r="D21" s="8">
         <f>$A$3+C21/2</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="8">
-        <f>(E8/($B$17*$D$3))*(1-E8/$C$3)</f>
-        <v>19.444444444444439</v>
+        <v>12.5</v>
+      </c>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="9">
+        <f>(F8/($B$17*$D$3))*(1-F8/$C$3)</f>
+        <v>4.8611111111111098</v>
       </c>
       <c r="D22" s="8">
         <f>$A$3+C22/2</f>
-        <v>59.722222222222221</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="8">
-        <f>(E9/($B$17*$D$3))*(1-E9/$C$3)</f>
-        <v>17.777777777777779</v>
+        <v>12.430555555555555</v>
+      </c>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="9">
+        <f t="shared" si="1"/>
+        <v>4.4444444444444446</v>
       </c>
       <c r="D23">
+        <f t="shared" si="2"/>
+        <v>12.222222222222221</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="9">
         <f t="shared" si="1"/>
-        <v>58.888888888888886</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="8">
-        <f>(E10/($B$17*$D$3))*(1-E10/$C$3)</f>
-        <v>14.999999999999996</v>
+        <v>3.7499999999999991</v>
       </c>
       <c r="D24">
+        <f t="shared" si="2"/>
+        <v>11.875</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="9">
         <f t="shared" si="1"/>
-        <v>57.5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="8">
-        <f>(E11/($B$17*$D$3))*(1-E11/$C$3)</f>
-        <v>11.111111111111111</v>
+        <v>2.7777777777777777</v>
       </c>
       <c r="D25" s="8">
         <f>$A$3+C25/2</f>
-        <v>55.555555555555557</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="8">
-        <f>(E12/($B$17*$D$3))*(1-E12/$C$3)</f>
-        <v>6.1111111111111107</v>
+        <v>11.388888888888889</v>
+      </c>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="9">
+        <f t="shared" si="1"/>
+        <v>1.5277777777777777</v>
       </c>
       <c r="D26" s="8">
-        <f t="shared" ref="D26:D27" si="2">$A$3+C26/2</f>
-        <v>53.055555555555557</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="8">
-        <f>(E13/($B$17*$D$3))*(1-E13/$C$3)</f>
-        <v>0.79199999999999982</v>
+        <f t="shared" ref="D26:D27" si="3">$A$3+C26/2</f>
+        <v>10.763888888888889</v>
+      </c>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="9">
+        <f t="shared" si="1"/>
+        <v>0.19799999999999995</v>
       </c>
       <c r="D27" s="8">
-        <f t="shared" si="2"/>
-        <v>50.396000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>10.099</v>
+      </c>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C28" s="8"/>
     </row>
   </sheetData>
